--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1661219.677241198</v>
+        <v>1736749.346906003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10649678.81092546</v>
+        <v>10649678.81092545</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>339.6503918592879</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>196.10508242172</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.98454830727985</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>142.3766723716363</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>100.6254937447912</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>38.0467312867056</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4.897735724329054</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>275.1802903004232</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>92.39479380343629</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>126.7632886126195</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>179.2195606391667</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.46423243228393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>102.5440900052613</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>9.869491435172048</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>143.2925104849749</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>60.54139430664212</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002133</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.5269768002176</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>60.51808258596586</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>240.4462986726079</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>116.8645225501835</v>
+        <v>181.8284944866957</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.4440282479056</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.59458547084342</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>106.7833036354491</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>161.768886129025</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.460519632919</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.321187657107</v>
+        <v>2092.422847177208</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.5384547146243</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>409.5384547146243</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>554.8972444826458</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>554.8972444826458</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146243</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146243</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1307.111989013772</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C5" t="n">
-        <v>1307.111989013772</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="D5" t="n">
-        <v>1307.111989013772</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="E5" t="n">
-        <v>921.3237364155282</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>510.3378316259206</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>92.37402352410749</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>92.37402352410749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4598,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>227.8899898843846</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2372.61483931396</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2372.61483931396</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2372.61483931396</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2372.61483931396</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2372.61483931396</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1982.475507338148</v>
+        <v>1547.452423968254</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4890,13 +4892,13 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823784</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X13" t="n">
-        <v>1159.85161622171</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y13" t="n">
-        <v>1159.85161622171</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.503549752619</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>799.8610847926847</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C19" t="n">
-        <v>630.9249018647778</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>630.9249018647778</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.5095496229244</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,28 +5773,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3941.006808105545</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C22" t="n">
-        <v>3772.070625177638</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>3772.070625177638</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>3772.070625177638</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>3772.070625177638</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>3603.895303497458</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W22" t="n">
-        <v>4571.437402977332</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X22" t="n">
-        <v>4343.447852079315</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y22" t="n">
-        <v>4122.655272935785</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="23">
@@ -6005,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.53808638059</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625202</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636331</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403514</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431061</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436458</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.160657054481</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843987</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.246603057545</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851658</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814698</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>4058.21949835487</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4688.650093226657</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>4688.650093226657</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>4688.650093226657</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>4688.650093226657</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>4688.650093226657</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>4460.66054232864</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>4239.86796318511</v>
       </c>
     </row>
     <row r="29">
@@ -6458,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>256.0479578003561</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C31" t="n">
-        <v>256.0479578003561</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>256.0479578003561</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>256.0479578003561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>256.0479578003561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6652,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1256.041221393652</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1256.041221393652</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.6964226305959</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>732.1698305154059</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3796.266898524761</v>
+        <v>4184.545848715274</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.330715596854</v>
+        <v>4015.609665787366</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596854</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596854</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916675</v>
@@ -6868,40 +6870,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>4742.809600741379</v>
+        <v>4366.194313545513</v>
       </c>
       <c r="U34" t="n">
-        <v>4742.809600741379</v>
+        <v>4366.194313545513</v>
       </c>
       <c r="V34" t="n">
-        <v>4488.125112535492</v>
+        <v>4366.194313545513</v>
       </c>
       <c r="W34" t="n">
-        <v>4198.707942498531</v>
+        <v>4366.194313545513</v>
       </c>
       <c r="X34" t="n">
-        <v>4198.707942498531</v>
+        <v>4366.194313545513</v>
       </c>
       <c r="Y34" t="n">
-        <v>3977.915363355001</v>
+        <v>4366.194313545513</v>
       </c>
     </row>
     <row r="35">
@@ -6935,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7017,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>474.7746905116418</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>721.5398184181058</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>824.3515998808206</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>824.3515998808206</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1368.164726873149</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1368.164726873149</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1079.036088086707</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>824.3515998808206</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>824.3515998808206</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>824.3515998808206</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>824.3515998808206</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.814757496976</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1483.164164021697</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1483.164164021697</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1483.164164021697</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>1483.164164021697</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>1228.47967581581</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>939.0625057788493</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>711.072954880832</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7397,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>498.9056400965599</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>745.6707680030239</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.4221461351941</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="C43" t="n">
-        <v>563.4221461351941</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.513355276059</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>1080.828867070172</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W43" t="n">
-        <v>791.4116970332115</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X43" t="n">
-        <v>563.4221461351941</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.4221461351941</v>
+        <v>933.2366688293934</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7640,16 +7642,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,34 +7660,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4116509503168</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119822</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>73.53204524670093</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>73.5320452467009</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>62.79465928983205</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>199.6230805871095</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.3677477496534</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23473,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>130.6844047393606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>43.88987264130786</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>208.7151619169227</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>5.621317882561215</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>225.9816040299489</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338994</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>137.4027273976374</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>9.25101078670798</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>45.79105372596945</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>104.6830385082057</v>
+        <v>39.71906657169356</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>68.47678173569761</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>94.36976693294939</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>60.46351746317869</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>124.4684662695524</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>163.899125433865</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="I2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.324672136</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721358</v>
@@ -26350,10 +26352,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26430,10 +26432,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26442,10 +26444,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26454,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.628434603</v>
+        <v>-334166.6284346032</v>
       </c>
       <c r="C6" t="n">
-        <v>255801.2507799417</v>
+        <v>255801.2507799413</v>
       </c>
       <c r="D6" t="n">
-        <v>255801.2507799414</v>
+        <v>255801.2507799418</v>
       </c>
       <c r="E6" t="n">
-        <v>-157664.5833057792</v>
+        <v>-157664.5833057791</v>
       </c>
       <c r="F6" t="n">
-        <v>367495.4531711169</v>
+        <v>367495.4531711168</v>
       </c>
       <c r="G6" t="n">
-        <v>367495.4531711169</v>
+        <v>367495.453171117</v>
       </c>
       <c r="H6" t="n">
         <v>367495.4531711169</v>
       </c>
       <c r="I6" t="n">
-        <v>367495.4531711171</v>
+        <v>367495.453171117</v>
       </c>
       <c r="J6" t="n">
-        <v>191072.2339785242</v>
+        <v>191072.233978524</v>
       </c>
       <c r="K6" t="n">
-        <v>367495.4531711168</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="L6" t="n">
+        <v>367495.453171117</v>
+      </c>
+      <c r="M6" t="n">
+        <v>232694.4379372797</v>
+      </c>
+      <c r="N6" t="n">
         <v>367495.4531711169</v>
       </c>
-      <c r="M6" t="n">
-        <v>232694.4379372798</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>367495.453171117</v>
       </c>
-      <c r="O6" t="n">
-        <v>367495.4531711171</v>
-      </c>
       <c r="P6" t="n">
-        <v>367495.453171117</v>
+        <v>367495.4531711169</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>15.03264976139508</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>173.626018256749</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.6309247109325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>4.288519608521597</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>281.3048763274705</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>113.8845849581556</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>162.3490853742988</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>90.09260147058433</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>124.0535265542215</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>159.5185856293582</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>72.91808268466133</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>544.836028000783</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006117962</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>355.8957474878089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>322.7897502027252</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>213.3700978777713</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>406.7164955186342</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>237.7447944281936</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1736749.346906003</v>
+        <v>1729732.332014293</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>339.6503918592879</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>39.01104463634053</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>146.6850513083905</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>142.3766723716363</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>100.6254937447912</v>
+        <v>211.6206753870018</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.897735724329054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>30.28266751616624</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>275.1802903004232</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>57.29842298468364</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>80.30846669433885</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>179.2195606391667</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>86.47617960322175</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>195.8155841663233</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.869491435172048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>60.54139430664212</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>60.51808258596586</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>220.2317204194343</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>240.4462986726079</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>169.9068027896051</v>
       </c>
       <c r="T34" t="n">
-        <v>181.8284944866957</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>31.13654107019667</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>106.7833036354491</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>57.64843562452423</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>420.5427973766248</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>93.34807741262762</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>554.8972444826458</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>554.8972444826458</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1465.195303554219</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>1465.195303554219</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="D5" t="n">
-        <v>1465.195303554219</v>
+        <v>1423.845672642451</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.195303554219</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.195303554219</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.8899898843846</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.852583904132</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>863.9242055694021</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>452.9383007797946</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>439.0148967183855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>111.8201767543883</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968254</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,13 +4889,13 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>429.8656862282829</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>281.9525926458898</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>135.0626451479795</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="V10" t="n">
-        <v>517.6822058285749</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="W10" t="n">
-        <v>517.6822058285749</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="X10" t="n">
-        <v>517.6822058285749</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.6822058285749</v>
+        <v>579.9823256406187</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
         <v>265.3924131404652</v>
@@ -5190,31 +5190,31 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1354.17636097712</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W13" t="n">
-        <v>1064.759190940159</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X13" t="n">
-        <v>836.769640042142</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,34 +5290,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557903</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333287</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273998</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904392</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>554.6108700904392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,28 +5773,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>359.1696912903951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,13 +6165,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4058.21949835487</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C28" t="n">
-        <v>3889.283315426963</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D28" t="n">
-        <v>3889.283315426963</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.650093226657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4688.650093226657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4688.650093226657</v>
+        <v>1276.459987305949</v>
       </c>
       <c r="V28" t="n">
-        <v>4688.650093226657</v>
+        <v>1021.775499100062</v>
       </c>
       <c r="W28" t="n">
-        <v>4688.650093226657</v>
+        <v>732.358329063101</v>
       </c>
       <c r="X28" t="n">
-        <v>4460.66054232864</v>
+        <v>732.358329063101</v>
       </c>
       <c r="Y28" t="n">
-        <v>4239.86796318511</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="29">
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,7 +6478,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.1830073829216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1256.041221393652</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V31" t="n">
-        <v>1256.041221393652</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W31" t="n">
-        <v>966.6240513566914</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X31" t="n">
-        <v>966.6240513566914</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y31" t="n">
-        <v>745.8314722131613</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O33" t="n">
-        <v>1818.397748747283</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4184.545848715274</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C34" t="n">
-        <v>4015.609665787366</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D34" t="n">
-        <v>3865.493026375031</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E34" t="n">
-        <v>3717.579932792637</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294727</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1327.293237437089</v>
       </c>
       <c r="T34" t="n">
-        <v>4366.194313545513</v>
+        <v>1327.293237437089</v>
       </c>
       <c r="U34" t="n">
-        <v>4366.194313545513</v>
+        <v>1327.293237437089</v>
       </c>
       <c r="V34" t="n">
-        <v>4366.194313545513</v>
+        <v>1072.608749231202</v>
       </c>
       <c r="W34" t="n">
-        <v>4366.194313545513</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="X34" t="n">
-        <v>4366.194313545513</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="Y34" t="n">
-        <v>4366.194313545513</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7198,7 +7198,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7402,10 +7402,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>933.2366688293934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293934</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>933.2366688293934</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>933.2366688293934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>933.2366688293934</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,22 +7633,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1440.685527502827</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1440.685527502827</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360585</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119822</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P33" t="n">
-        <v>308.1251096272034</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.0468187333693</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>29.89407122271388</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7151619169227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>225.9816040299489</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>137.4027273976374</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>66.005631979143</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>45.79105372596945</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>28.01400719399814</v>
       </c>
       <c r="T34" t="n">
-        <v>39.71906657169356</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>255.1008113283807</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>60.46351746317869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>163.899125433865</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715715</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721356</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="O2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
+        <v>174490.7773218261</v>
+      </c>
+      <c r="D4" t="n">
         <v>174490.7773218262</v>
-      </c>
-      <c r="D4" t="n">
-        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26432,10 +26432,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-334166.6284346032</v>
       </c>
       <c r="C6" t="n">
-        <v>255801.2507799413</v>
+        <v>255801.2507799416</v>
       </c>
       <c r="D6" t="n">
-        <v>255801.2507799418</v>
+        <v>255801.2507799416</v>
       </c>
       <c r="E6" t="n">
-        <v>-157664.5833057791</v>
+        <v>-158639.1745655006</v>
       </c>
       <c r="F6" t="n">
-        <v>367495.4531711168</v>
+        <v>366520.8619113951</v>
       </c>
       <c r="G6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.8619113952</v>
       </c>
       <c r="H6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="I6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.861911395</v>
       </c>
       <c r="J6" t="n">
-        <v>191072.233978524</v>
+        <v>190097.6427188026</v>
       </c>
       <c r="K6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="L6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="M6" t="n">
-        <v>232694.4379372797</v>
+        <v>231719.8466775583</v>
       </c>
       <c r="N6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="O6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.8619113952</v>
       </c>
       <c r="P6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113952</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>15.03264976139508</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>20.56176979023729</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>4.288519608521597</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>281.3048763274705</v>
+        <v>170.30969468526</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>162.3490853742988</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>118.3328055020461</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>90.09260147058433</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>94.63289326017755</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>87.00133556471206</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>72.91808268466133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P33" t="n">
-        <v>515.2185245587281</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,13 +37396,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483295</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37557,7 +37557,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,10 +37636,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37861,10 +37861,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>483.6693559063409</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1729732.332014293</v>
+        <v>1734671.594863324</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10649678.81092545</v>
+        <v>10649678.81092546</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>411.4450956504851</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.01104463634053</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>146.6850513083905</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>211.6206753870018</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.8578634232113</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>30.28266751616624</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.51599806121328</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>80.36913259236702</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>57.29842298468364</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.30846669433885</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>123.4027026842192</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>86.47617960322175</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>195.8155841663233</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="20">
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>32.8965767413795</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>220.2317204194343</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>256.3432811758636</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>169.9068027896051</v>
+        <v>45.87424119343749</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>54.92969084765561</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>31.13654107019667</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>193.7851223613675</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4309,22 +4309,22 @@
         <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1249.492510268045</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>838.5066054784379</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G2" t="n">
-        <v>420.5427973766248</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>93.34807741262762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
         <v>351.9727148150933</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249201</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C5" t="n">
-        <v>1782.111371249201</v>
+        <v>636.4096822688557</v>
       </c>
       <c r="D5" t="n">
-        <v>1423.845672642451</v>
+        <v>636.4096822688557</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>636.4096822688557</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4612,7 +4612,7 @@
         <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
         <v>380.6911546495019</v>
@@ -4719,58 +4719,58 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>712.4562588920774</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D8" t="n">
-        <v>1249.712458167646</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E8" t="n">
-        <v>863.9242055694021</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F8" t="n">
-        <v>452.9383007797946</v>
+        <v>135.1239238328564</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0148967183855</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>111.8201767543883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406187</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406187</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>429.8656862282829</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9525926458898</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>135.0626451479795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406187</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811258</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>667.8334571142351</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,19 +5305,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550793</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181187</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5743,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6211,22 +6211,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6311,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1276.459987305949</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1021.775499100062</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>732.358329063101</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1016.198248099061</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>761.5137598931742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.3990000507114</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>562.3990000507114</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>412.2823606383756</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.293237437089</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="T34" t="n">
-        <v>1327.293237437089</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="U34" t="n">
-        <v>1327.293237437089</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="V34" t="n">
-        <v>1072.608749231202</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W34" t="n">
-        <v>783.1915791942415</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X34" t="n">
-        <v>783.1915791942415</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y34" t="n">
-        <v>562.3990000507114</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1043.759793676903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>789.0753054710162</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>499.6581354340557</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,61 +7399,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7599,7 +7599,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,31 +7669,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1192.098619279963</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>902.9699804935216</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>648.2854922876347</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360585</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>56.4292774977181</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>200.0468187333693</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.267320147927677</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>29.89407122271388</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>66.005631979143</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>29.89407122271371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.01400719399814</v>
+        <v>152.0465687901658</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25134,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>111.563877615722</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>255.1008113283807</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>27.76243869702174</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908331.1362715715</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721356</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721358</v>
@@ -26334,28 +26334,28 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="M2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.6284346032</v>
+        <v>-334166.6284346033</v>
       </c>
       <c r="C6" t="n">
-        <v>255801.2507799416</v>
+        <v>255801.2507799412</v>
       </c>
       <c r="D6" t="n">
-        <v>255801.2507799416</v>
+        <v>255801.2507799415</v>
       </c>
       <c r="E6" t="n">
-        <v>-158639.1745655006</v>
+        <v>-157762.0424317514</v>
       </c>
       <c r="F6" t="n">
-        <v>366520.8619113951</v>
+        <v>367397.9940451446</v>
       </c>
       <c r="G6" t="n">
-        <v>366520.8619113952</v>
+        <v>367397.9940451447</v>
       </c>
       <c r="H6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="I6" t="n">
-        <v>366520.861911395</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="J6" t="n">
-        <v>190097.6427188026</v>
+        <v>190974.7748525519</v>
       </c>
       <c r="K6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="L6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451447</v>
       </c>
       <c r="M6" t="n">
-        <v>231719.8466775583</v>
+        <v>232596.9788113077</v>
       </c>
       <c r="N6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="O6" t="n">
-        <v>366520.8619113952</v>
+        <v>367397.9940451449</v>
       </c>
       <c r="P6" t="n">
-        <v>366520.8619113952</v>
+        <v>367397.9940451446</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,28 +26980,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.339074370309845</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>112.9202716085207</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20.56176979023729</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>170.30969468526</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.0181823185001</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>118.3328055020461</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>13.60675189370102</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>333.415037428428</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>94.63289326017755</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>87.00133556471206</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399514</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>567.6062243483295</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
